--- a/健康/OldYear/记录表2018.xlsx
+++ b/健康/OldYear/记录表2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\健康\OldYear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C6B85-899A-4001-9D82-693F6021129D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090F339-9ABF-40A9-BC5E-F23FDF195F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11385" tabRatio="686" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -938,6 +938,34 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,34 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -7890,15 +7890,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="M1" s="13"/>
@@ -7908,12 +7908,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -7925,12 +7925,12 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="63">
         <f>B4/(B3/100)^2</f>
         <v>23.437499999999996</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -7942,20 +7942,20 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1">
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="57" t="str">
+      <c r="E5" s="66" t="str">
         <f>IF(E3&lt;18.5,"體重過輕",IF(E3&lt;24,"正常範圍",IF(E3&lt;27,"過重",IF(E3&lt;30,"輕度肥胖",IF(E3&lt;35,"中度肥胖","重度肥胖")))))</f>
         <v>正常範圍</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="21.75" customHeight="1">
       <c r="A6" s="7"/>
@@ -7978,12 +7978,12 @@
     <row r="7" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="8" spans="1:13" ht="19.7" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:13" ht="19.7" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -7992,67 +7992,72 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:13" ht="19.7" customHeight="1">
       <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="19.7" customHeight="1">
       <c r="D11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D13" s="68"/>
-      <c r="E13" s="64" t="s">
+      <c r="D13" s="59"/>
+      <c r="E13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D14" s="68"/>
-      <c r="E14" s="64" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D15" s="69"/>
-      <c r="E15" s="66" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
     </row>
   </sheetData>
   <sheetProtection password="EB07" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="D12:D15"/>
@@ -8061,11 +8066,6 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8077,10 +8077,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:HM19"/>
+  <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -10048,6 +10048,12 @@
         <v>1679.6428571428571</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="43">
+        <f>F18/28</f>
+        <v>68.642857142857139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -10063,10 +10069,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:HM20"/>
+  <dimension ref="A1:HM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -12251,6 +12257,12 @@
         <v>1773.3928571428571</v>
       </c>
     </row>
+    <row r="21" spans="1:11">
+      <c r="F21" s="43">
+        <f>F19/35</f>
+        <v>49.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -12266,10 +12278,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:HM19"/>
+  <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -14235,6 +14247,12 @@
         <v>1663.1785714285713</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="43">
+        <f>F18/28</f>
+        <v>55.178571428571431</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -14250,10 +14268,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:HM20"/>
+  <dimension ref="A1:HM21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -16318,6 +16336,12 @@
         <v>1605.3571428571429</v>
       </c>
     </row>
+    <row r="21" spans="1:11">
+      <c r="F21" s="43">
+        <f>F19/35</f>
+        <v>169.74285714285713</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -16335,7 +16359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -22280,10 +22304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:HM19"/>
+  <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -24248,6 +24272,12 @@
         <v>1559.5</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="21">
+        <f>F18/28</f>
+        <v>335.46428571428572</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -24263,10 +24293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:HM19"/>
+  <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -26233,6 +26263,12 @@
         <v>1748.3928571428571</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="43">
+        <f>F18/28</f>
+        <v>120.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -26251,7 +26287,7 @@
   <dimension ref="A1:HM23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -28429,12 +28465,18 @@
         <v>-296.32142857142969</v>
       </c>
       <c r="I21" s="21">
-        <f>AVERAGE(I13:I16)/7</f>
-        <v>675.75</v>
+        <f>AVERAGE(I13:I18)/7</f>
+        <v>673.85714285714289</v>
       </c>
       <c r="J21" s="21">
         <f>AVERAGE(J13:J16)/7</f>
         <v>1558.8214285714287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="F22" s="43">
+        <f>F20/35</f>
+        <v>320.8857142857143</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -28457,10 +28499,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:HM19"/>
+  <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -30426,6 +30468,12 @@
         <v>1679.5357142857142</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="43">
+        <f>F18/28</f>
+        <v>146.28571428571428</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -30441,10 +30489,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:HM20"/>
+  <dimension ref="A1:HM21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -32617,6 +32665,12 @@
         <v>1757.0857142857144</v>
       </c>
     </row>
+    <row r="21" spans="1:11">
+      <c r="F21" s="43">
+        <f>F19/35</f>
+        <v>146.80000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -32632,10 +32686,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:HM19"/>
+  <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -34601,6 +34655,12 @@
         <v>1704.0357142857142</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="43">
+        <f>F18/28</f>
+        <v>54.285714285714285</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -34616,10 +34676,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:HM19"/>
+  <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -36587,6 +36647,12 @@
         <v>1577.1428571428571</v>
       </c>
     </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="43">
+        <f>F18/28</f>
+        <v>198.53571428571428</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
@@ -36602,10 +36668,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:HM20"/>
+  <dimension ref="A1:HM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -38807,6 +38873,12 @@
         <v>1678.0857142857144</v>
       </c>
     </row>
+    <row r="21" spans="1:11">
+      <c r="F21" s="43">
+        <f>F19/35</f>
+        <v>181.31428571428572</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AC10:AJ10 B8:IV8">
